--- a/noscalelogdet.xlsx
+++ b/noscalelogdet.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -403,8 +403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="M70" sqref="M70"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -471,6 +471,9 @@
       <c r="F4">
         <v>28</v>
       </c>
+      <c r="G4">
+        <v>56</v>
+      </c>
       <c r="I4">
         <v>22</v>
       </c>
@@ -494,6 +497,9 @@
       <c r="F5">
         <v>32</v>
       </c>
+      <c r="G5">
+        <v>56</v>
+      </c>
       <c r="I5">
         <v>38</v>
       </c>
@@ -517,6 +523,9 @@
       <c r="F6">
         <v>48</v>
       </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
       <c r="I6">
         <v>50</v>
       </c>
@@ -603,6 +612,9 @@
       <c r="F11">
         <v>32</v>
       </c>
+      <c r="G11">
+        <v>48</v>
+      </c>
       <c r="I11">
         <v>24</v>
       </c>
@@ -626,6 +638,9 @@
       <c r="F12">
         <v>38</v>
       </c>
+      <c r="G12">
+        <v>52</v>
+      </c>
       <c r="I12">
         <v>36</v>
       </c>
@@ -649,6 +664,9 @@
       <c r="F13">
         <v>48</v>
       </c>
+      <c r="G13">
+        <v>56</v>
+      </c>
       <c r="I13">
         <v>52</v>
       </c>
@@ -735,6 +753,9 @@
       <c r="F18">
         <v>28</v>
       </c>
+      <c r="G18">
+        <v>56</v>
+      </c>
       <c r="I18">
         <v>22</v>
       </c>
@@ -758,6 +779,9 @@
       <c r="F19">
         <v>28</v>
       </c>
+      <c r="G19">
+        <v>56</v>
+      </c>
       <c r="I19">
         <v>30</v>
       </c>
@@ -781,6 +805,9 @@
       <c r="F20">
         <v>56</v>
       </c>
+      <c r="G20">
+        <v>62</v>
+      </c>
       <c r="I20">
         <v>54</v>
       </c>
@@ -867,6 +894,9 @@
       <c r="F24">
         <v>30</v>
       </c>
+      <c r="G24">
+        <v>46</v>
+      </c>
       <c r="I24">
         <v>34</v>
       </c>
@@ -890,6 +920,9 @@
       <c r="F25">
         <v>38</v>
       </c>
+      <c r="G25">
+        <v>42</v>
+      </c>
       <c r="I25">
         <v>32</v>
       </c>
@@ -913,6 +946,9 @@
       <c r="F26">
         <v>54</v>
       </c>
+      <c r="G26">
+        <v>52</v>
+      </c>
       <c r="I26">
         <v>44</v>
       </c>
@@ -999,6 +1035,9 @@
       <c r="F31">
         <v>24</v>
       </c>
+      <c r="G31">
+        <v>48</v>
+      </c>
       <c r="I31">
         <v>12</v>
       </c>
@@ -1022,6 +1061,9 @@
       <c r="F32">
         <v>26</v>
       </c>
+      <c r="G32">
+        <v>42</v>
+      </c>
       <c r="I32">
         <v>16</v>
       </c>
@@ -1045,6 +1087,9 @@
       <c r="F33">
         <v>46</v>
       </c>
+      <c r="G33">
+        <v>46</v>
+      </c>
       <c r="I33">
         <v>46</v>
       </c>
@@ -1131,6 +1176,9 @@
       <c r="F38">
         <v>28</v>
       </c>
+      <c r="G38">
+        <v>48</v>
+      </c>
       <c r="I38">
         <v>24</v>
       </c>
@@ -1154,6 +1202,9 @@
       <c r="F39">
         <v>38</v>
       </c>
+      <c r="G39">
+        <v>50</v>
+      </c>
       <c r="I39">
         <v>36</v>
       </c>
@@ -1177,6 +1228,9 @@
       <c r="F40">
         <v>52</v>
       </c>
+      <c r="G40">
+        <v>56</v>
+      </c>
       <c r="I40">
         <v>48</v>
       </c>
@@ -1263,6 +1317,9 @@
       <c r="F46">
         <v>28</v>
       </c>
+      <c r="G46">
+        <v>46</v>
+      </c>
       <c r="I46">
         <v>30</v>
       </c>
@@ -1286,6 +1343,9 @@
       <c r="F47">
         <v>36</v>
       </c>
+      <c r="G47">
+        <v>54</v>
+      </c>
       <c r="I47">
         <v>34</v>
       </c>
@@ -1309,6 +1369,9 @@
       <c r="F48">
         <v>54</v>
       </c>
+      <c r="G48">
+        <v>54</v>
+      </c>
       <c r="I48">
         <v>52</v>
       </c>
@@ -1395,6 +1458,9 @@
       <c r="F53">
         <v>28</v>
       </c>
+      <c r="G53">
+        <v>48</v>
+      </c>
       <c r="I53">
         <v>24</v>
       </c>
@@ -1418,6 +1484,9 @@
       <c r="F54">
         <v>20</v>
       </c>
+      <c r="G54">
+        <v>48</v>
+      </c>
       <c r="I54">
         <v>36</v>
       </c>
@@ -1441,6 +1510,9 @@
       <c r="F55">
         <v>46</v>
       </c>
+      <c r="G55">
+        <v>50</v>
+      </c>
       <c r="I55">
         <v>42</v>
       </c>
@@ -1527,6 +1599,9 @@
       <c r="F60">
         <v>22</v>
       </c>
+      <c r="G60">
+        <v>42</v>
+      </c>
       <c r="I60">
         <v>20</v>
       </c>
@@ -1550,6 +1625,9 @@
       <c r="F61">
         <v>28</v>
       </c>
+      <c r="G61">
+        <v>46</v>
+      </c>
       <c r="I61">
         <v>34</v>
       </c>
@@ -1573,6 +1651,9 @@
       <c r="F62">
         <v>44</v>
       </c>
+      <c r="G62">
+        <v>44</v>
+      </c>
       <c r="I62">
         <v>50</v>
       </c>
@@ -1659,6 +1740,9 @@
       <c r="F67">
         <v>26</v>
       </c>
+      <c r="G67">
+        <v>44</v>
+      </c>
       <c r="I67">
         <v>16</v>
       </c>
@@ -1682,6 +1766,9 @@
       <c r="F68">
         <v>28</v>
       </c>
+      <c r="G68">
+        <v>42</v>
+      </c>
       <c r="I68">
         <v>26</v>
       </c>
@@ -1704,6 +1791,9 @@
       </c>
       <c r="F69">
         <v>44</v>
+      </c>
+      <c r="G69">
+        <v>48</v>
       </c>
       <c r="I69">
         <v>48</v>
